--- a/기획/아이템 명세서.xlsx
+++ b/기획/아이템 명세서.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\6255p\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\6255p\Desktop\UnityProject\Clone_Survivor.io\기획\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66E03443-F1E5-4346-A35A-3F932F726DEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{042CD8C7-AE14-434C-8128-4D55DC3A7BE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -138,7 +138,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="112">
   <si>
     <t>무기명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -567,6 +567,16 @@
   <si>
     <t>쿠나이 1개 추가 
 피해량 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>벽돌 1개 추가
+피해량 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>덤벨
+[세계 최강]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -675,13 +685,13 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -809,33 +819,33 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D27BE8C9-0079-4D92-BA66-F94B1878923C}" name="표1" displayName="표1" ref="A1:H11" totalsRowShown="0" headerRowDxfId="9" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D27BE8C9-0079-4D92-BA66-F94B1878923C}" name="표1" displayName="표1" ref="A1:H11" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
   <autoFilter ref="A1:H11" xr:uid="{D27BE8C9-0079-4D92-BA66-F94B1878923C}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{DEC30078-EB34-4928-8271-F90082E1B208}" name="무기명" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{846171CF-E565-4CF6-8D0E-5CACFBECEF64}" name="스프라이트" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{35A0D7BE-874C-4E73-B03D-4C0CC95B6F23}" name="Lv.1" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{E4C13BD9-29F6-436C-B8F2-B96CC2A872DA}" name="Lv.2" dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{EA008873-085D-4CE9-B4F0-FDDFF0EC14B3}" name="Lv.3" dataDxfId="14"/>
-    <tableColumn id="6" xr3:uid="{8174EF4A-EF9A-4E37-9207-F2492F01DE0F}" name="Lv.4" dataDxfId="13"/>
-    <tableColumn id="7" xr3:uid="{D2DBB25E-D940-4C50-BAA6-BDF5EE25DF21}" name="Lv.5" dataDxfId="12"/>
-    <tableColumn id="8" xr3:uid="{4AEDFA11-970B-4703-A851-AFE1945095E6}" name="진화" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{DEC30078-EB34-4928-8271-F90082E1B208}" name="무기명" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{846171CF-E565-4CF6-8D0E-5CACFBECEF64}" name="스프라이트" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{35A0D7BE-874C-4E73-B03D-4C0CC95B6F23}" name="Lv.1" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{E4C13BD9-29F6-436C-B8F2-B96CC2A872DA}" name="Lv.2" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{EA008873-085D-4CE9-B4F0-FDDFF0EC14B3}" name="Lv.3" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{8174EF4A-EF9A-4E37-9207-F2492F01DE0F}" name="Lv.4" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{D2DBB25E-D940-4C50-BAA6-BDF5EE25DF21}" name="Lv.5" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{4AEDFA11-970B-4703-A851-AFE1945095E6}" name="진화" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5680CEF7-AF7D-4D7F-B7A3-D8D04271C755}" name="표2" displayName="표2" ref="A1:G12" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5680CEF7-AF7D-4D7F-B7A3-D8D04271C755}" name="표2" displayName="표2" ref="A1:G12" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
   <autoFilter ref="A1:G12" xr:uid="{5680CEF7-AF7D-4D7F-B7A3-D8D04271C755}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{430AC6AF-34C9-4943-B60B-2EC5227C1B07}" name="패시브명" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{9F8085D1-131B-4359-B38D-246DBD1F8E23}" name="스프라이트" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{8BB5720E-007A-4AFE-8202-38AFE8C17C8C}" name="Lv.1" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{E45ABC8F-0EA2-41F0-9893-BE85A52ECFAB}" name="Lv.2" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{F91496FA-B8B2-499E-9388-FF6E8C745C71}" name="Lv.3" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{6AB02E5A-EAEB-4A09-AC5B-7C33E188E858}" name="Lv.4" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{8E893DE3-22AD-4C87-970A-001140C09E7C}" name="Lv.5" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{430AC6AF-34C9-4943-B60B-2EC5227C1B07}" name="패시브명" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{9F8085D1-131B-4359-B38D-246DBD1F8E23}" name="스프라이트" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{8BB5720E-007A-4AFE-8202-38AFE8C17C8C}" name="Lv.1" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{E45ABC8F-0EA2-41F0-9893-BE85A52ECFAB}" name="Lv.2" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{F91496FA-B8B2-499E-9388-FF6E8C745C71}" name="Lv.3" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{6AB02E5A-EAEB-4A09-AC5B-7C33E188E858}" name="Lv.4" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{8E893DE3-22AD-4C87-970A-001140C09E7C}" name="Lv.5" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1107,7 +1117,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1156,11 +1166,21 @@
       <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
+      <c r="D2" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>111</v>
+      </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>

--- a/기획/아이템 명세서.xlsx
+++ b/기획/아이템 명세서.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\6255p\Desktop\UnityProject\Clone_Survivor.io\기획\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{042CD8C7-AE14-434C-8128-4D55DC3A7BE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E30165D-B146-4252-ADB0-90D1F06476F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
   <metadataTypes count="1">
     <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
-  <futureMetadata name="XLRICHVALUE" count="10">
+  <futureMetadata name="XLRICHVALUE" count="11">
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
@@ -101,8 +101,15 @@
         </ext>
       </extLst>
     </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="10"/>
+        </ext>
+      </extLst>
+    </bk>
   </futureMetadata>
-  <valueMetadata count="10">
+  <valueMetadata count="11">
     <bk>
       <rc t="1" v="0"/>
     </bk>
@@ -132,13 +139,16 @@
     </bk>
     <bk>
       <rc t="1" v="9"/>
+    </bk>
+    <bk>
+      <rc t="1" v="10"/>
     </bk>
   </valueMetadata>
 </metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="116">
   <si>
     <t>무기명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -577,6 +587,24 @@
   <si>
     <t>덤벨
 [세계 최강]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어막</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>융해시키는 방어막을 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영역 확대
+피해량 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중력장
+[나의 영역]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -750,7 +778,7 @@
 </file>
 
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="10">
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="11">
   <rv s="0">
     <v>0</v>
     <v>5</v>
@@ -791,6 +819,10 @@
     <v>9</v>
     <v>5</v>
   </rv>
+  <rv s="0">
+    <v>10</v>
+    <v>5</v>
+  </rv>
 </rvData>
 </file>
 
@@ -815,12 +847,13 @@
   <rel r:id="rId8"/>
   <rel r:id="rId9"/>
   <rel r:id="rId10"/>
+  <rel r:id="rId11"/>
 </richValueRels>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D27BE8C9-0079-4D92-BA66-F94B1878923C}" name="표1" displayName="표1" ref="A1:H11" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
-  <autoFilter ref="A1:H11" xr:uid="{D27BE8C9-0079-4D92-BA66-F94B1878923C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D27BE8C9-0079-4D92-BA66-F94B1878923C}" name="표1" displayName="표1" ref="A1:H12" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+  <autoFilter ref="A1:H12" xr:uid="{D27BE8C9-0079-4D92-BA66-F94B1878923C}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{DEC30078-EB34-4928-8271-F90082E1B208}" name="무기명" dataDxfId="16"/>
     <tableColumn id="2" xr3:uid="{846171CF-E565-4CF6-8D0E-5CACFBECEF64}" name="스프라이트" dataDxfId="15"/>
@@ -1114,10 +1147,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1398,6 +1431,32 @@
       </c>
       <c r="H11" s="4" t="s">
         <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B12" s="2" t="e" vm="11">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/기획/아이템 명세서.xlsx
+++ b/기획/아이템 명세서.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\6255p\Desktop\UnityProject\Clone_Survivor.io\기획\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E30165D-B146-4252-ADB0-90D1F06476F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FC81820-924B-4072-9FA5-B64253A007A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
   <metadataTypes count="1">
     <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
-  <futureMetadata name="XLRICHVALUE" count="11">
+  <futureMetadata name="XLRICHVALUE" count="12">
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
@@ -108,8 +108,15 @@
         </ext>
       </extLst>
     </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="11"/>
+        </ext>
+      </extLst>
+    </bk>
   </futureMetadata>
-  <valueMetadata count="11">
+  <valueMetadata count="12">
     <bk>
       <rc t="1" v="0"/>
     </bk>
@@ -142,13 +149,16 @@
     </bk>
     <bk>
       <rc t="1" v="10"/>
+    </bk>
+    <bk>
+      <rc t="1" v="11"/>
     </bk>
   </valueMetadata>
 </metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="120">
   <si>
     <t>무기명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -605,6 +615,46 @@
   <si>
     <t>중력장
 [나의 영역]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>샷건</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>총알 3개 발사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>총알 3개 추가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>피해량 증가</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개틀링
+[대량 학살 기계]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -612,7 +662,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -626,6 +676,13 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="2">
@@ -778,7 +835,7 @@
 </file>
 
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="11">
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="12">
   <rv s="0">
     <v>0</v>
     <v>5</v>
@@ -823,6 +880,10 @@
     <v>10</v>
     <v>5</v>
   </rv>
+  <rv s="0">
+    <v>11</v>
+    <v>5</v>
+  </rv>
 </rvData>
 </file>
 
@@ -848,12 +909,13 @@
   <rel r:id="rId9"/>
   <rel r:id="rId10"/>
   <rel r:id="rId11"/>
+  <rel r:id="rId12"/>
 </richValueRels>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D27BE8C9-0079-4D92-BA66-F94B1878923C}" name="표1" displayName="표1" ref="A1:H12" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
-  <autoFilter ref="A1:H12" xr:uid="{D27BE8C9-0079-4D92-BA66-F94B1878923C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D27BE8C9-0079-4D92-BA66-F94B1878923C}" name="표1" displayName="표1" ref="A1:H13" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+  <autoFilter ref="A1:H13" xr:uid="{D27BE8C9-0079-4D92-BA66-F94B1878923C}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{DEC30078-EB34-4928-8271-F90082E1B208}" name="무기명" dataDxfId="16"/>
     <tableColumn id="2" xr3:uid="{846171CF-E565-4CF6-8D0E-5CACFBECEF64}" name="스프라이트" dataDxfId="15"/>
@@ -1147,10 +1209,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1457,6 +1519,32 @@
       </c>
       <c r="H12" s="4" t="s">
         <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B13" s="2" t="e" vm="12">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/기획/아이템 명세서.xlsx
+++ b/기획/아이템 명세서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\6255p\Desktop\UnityProject\Clone_Survivor.io\기획\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FC81820-924B-4072-9FA5-B64253A007A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6632E910-5707-4519-9566-0779420E0C80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="무기" sheetId="1" r:id="rId1"/>
@@ -158,7 +158,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="138">
   <si>
     <t>무기명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -507,11 +507,6 @@
   </si>
   <si>
     <t>쿠나이 1개 발사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주위를 회전하는 수호자 팽이 2개를 소환
-수호자는 총알을 무효화합니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -557,11 +552,6 @@
   <si>
     <t>양자 공 
 [양자 역학 난제]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유령 수리검 
-[쥐도새로 모르게]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -655,6 +645,82 @@
   <si>
     <t>개틀링
 [대량 학살 기계]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5초마다 HP 2% 회복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5초마다 HP 3% 회복</t>
+  </si>
+  <si>
+    <t>5초마다 HP 4% 회복</t>
+  </si>
+  <si>
+    <t>5초마다 HP 5% 회복</t>
+  </si>
+  <si>
+    <t>피트니스 안내서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대 HP +20%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대 HP +40%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대 HP +60%</t>
+  </si>
+  <si>
+    <t>최대 HP +80%</t>
+  </si>
+  <si>
+    <t>최대 HP +100%</t>
+  </si>
+  <si>
+    <t>로켓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>샷건</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쿠나이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어막</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수호자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>축구공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>벽돌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진화 조합</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유령 수리검 
+[쥐도새도 모르게]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주위를 회전하는 수호자 팽이 2개를 소환
+수호자는 총알을 무효화합니다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -723,7 +789,10 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="20">
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -914,33 +983,40 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D27BE8C9-0079-4D92-BA66-F94B1878923C}" name="표1" displayName="표1" ref="A1:H13" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D27BE8C9-0079-4D92-BA66-F94B1878923C}" name="표1" displayName="표1" ref="A1:H13" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
   <autoFilter ref="A1:H13" xr:uid="{D27BE8C9-0079-4D92-BA66-F94B1878923C}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H13">
+    <sortCondition ref="A1:A13"/>
+  </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{DEC30078-EB34-4928-8271-F90082E1B208}" name="무기명" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{846171CF-E565-4CF6-8D0E-5CACFBECEF64}" name="스프라이트" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{35A0D7BE-874C-4E73-B03D-4C0CC95B6F23}" name="Lv.1" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{E4C13BD9-29F6-436C-B8F2-B96CC2A872DA}" name="Lv.2" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{EA008873-085D-4CE9-B4F0-FDDFF0EC14B3}" name="Lv.3" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{8174EF4A-EF9A-4E37-9207-F2492F01DE0F}" name="Lv.4" dataDxfId="11"/>
-    <tableColumn id="7" xr3:uid="{D2DBB25E-D940-4C50-BAA6-BDF5EE25DF21}" name="Lv.5" dataDxfId="10"/>
-    <tableColumn id="8" xr3:uid="{4AEDFA11-970B-4703-A851-AFE1945095E6}" name="진화" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{DEC30078-EB34-4928-8271-F90082E1B208}" name="무기명" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{846171CF-E565-4CF6-8D0E-5CACFBECEF64}" name="스프라이트" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{35A0D7BE-874C-4E73-B03D-4C0CC95B6F23}" name="Lv.1" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{E4C13BD9-29F6-436C-B8F2-B96CC2A872DA}" name="Lv.2" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{EA008873-085D-4CE9-B4F0-FDDFF0EC14B3}" name="Lv.3" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{8174EF4A-EF9A-4E37-9207-F2492F01DE0F}" name="Lv.4" dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{D2DBB25E-D940-4C50-BAA6-BDF5EE25DF21}" name="Lv.5" dataDxfId="11"/>
+    <tableColumn id="8" xr3:uid="{4AEDFA11-970B-4703-A851-AFE1945095E6}" name="진화" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5680CEF7-AF7D-4D7F-B7A3-D8D04271C755}" name="표2" displayName="표2" ref="A1:G12" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="A1:G12" xr:uid="{5680CEF7-AF7D-4D7F-B7A3-D8D04271C755}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{430AC6AF-34C9-4943-B60B-2EC5227C1B07}" name="패시브명" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{9F8085D1-131B-4359-B38D-246DBD1F8E23}" name="스프라이트" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{8BB5720E-007A-4AFE-8202-38AFE8C17C8C}" name="Lv.1" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{E45ABC8F-0EA2-41F0-9893-BE85A52ECFAB}" name="Lv.2" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{F91496FA-B8B2-499E-9388-FF6E8C745C71}" name="Lv.3" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{6AB02E5A-EAEB-4A09-AC5B-7C33E188E858}" name="Lv.4" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{8E893DE3-22AD-4C87-970A-001140C09E7C}" name="Lv.5" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5680CEF7-AF7D-4D7F-B7A3-D8D04271C755}" name="표2" displayName="표2" ref="A1:H13" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="A1:H13" xr:uid="{5680CEF7-AF7D-4D7F-B7A3-D8D04271C755}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G13">
+    <sortCondition ref="A1:A13"/>
+  </sortState>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{430AC6AF-34C9-4943-B60B-2EC5227C1B07}" name="패시브명" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{9F8085D1-131B-4359-B38D-246DBD1F8E23}" name="스프라이트" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{8BB5720E-007A-4AFE-8202-38AFE8C17C8C}" name="Lv.1" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{E45ABC8F-0EA2-41F0-9893-BE85A52ECFAB}" name="Lv.2" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{F91496FA-B8B2-499E-9388-FF6E8C745C71}" name="Lv.3" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{6AB02E5A-EAEB-4A09-AC5B-7C33E188E858}" name="Lv.4" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{8E893DE3-22AD-4C87-970A-001140C09E7C}" name="Lv.5" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{6CCFC898-8A29-4700-9C7B-19A1FE3CAC19}" name="진화 조합" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1211,8 +1287,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1253,299 +1329,299 @@
     </row>
     <row r="2" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B2" s="2" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>111</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="B3" s="2" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>102</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="B4" s="2" t="e" vm="3">
         <v>#VALUE!</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>94</v>
+        <v>29</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>100</v>
+        <v>47</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B5" s="2" t="e" vm="4">
         <v>#VALUE!</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
+        <v>15</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>101</v>
+      </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>13</v>
+        <v>110</v>
       </c>
       <c r="B6" s="2" t="e" vm="5">
         <v>#VALUE!</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>14</v>
+        <v>111</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>36</v>
+        <v>112</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>36</v>
+        <v>112</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
     </row>
     <row r="7" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B7" s="2" t="e" vm="6">
         <v>#VALUE!</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
+        <v>34</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
     </row>
     <row r="8" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="B8" s="2" t="e" vm="7">
         <v>#VALUE!</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="D8" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="H8" s="4" t="s">
         <v>109</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>104</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
     </row>
     <row r="9" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>28</v>
+        <v>114</v>
       </c>
       <c r="B9" s="2" t="e" vm="8">
         <v>#VALUE!</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>29</v>
+        <v>115</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>35</v>
+        <v>116</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>47</v>
+        <v>116</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>35</v>
+        <v>116</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="B10" s="2" t="e" vm="9">
         <v>#VALUE!</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
+        <v>137</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="11" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="B11" s="2" t="e" vm="10">
         <v>#VALUE!</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>97</v>
+        <v>36</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>98</v>
+        <v>36</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>112</v>
+        <v>23</v>
       </c>
       <c r="B12" s="2" t="e" vm="11">
         <v>#VALUE!</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>116</v>
+        <v>16</v>
       </c>
       <c r="B13" s="2" t="e" vm="12">
         <v>#VALUE!</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>119</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1558,17 +1634,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48E25522-29B1-4D88-9C3E-E532B48ECB7B}">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.75" customWidth="1"/>
+    <col min="1" max="1" width="15.125" customWidth="1"/>
     <col min="2" max="2" width="12.125" customWidth="1"/>
     <col min="3" max="7" width="25.625" customWidth="1"/>
+    <col min="8" max="8" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1593,240 +1670,294 @@
       <c r="G1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="1"/>
+      <c r="H1" s="4" t="s">
+        <v>135</v>
+      </c>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="H2" s="1"/>
+        <v>67</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>128</v>
+      </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="H3" s="1"/>
+        <v>92</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>129</v>
+      </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="H4" s="1"/>
+        <v>63</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>130</v>
+      </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>92</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>66</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>39</v>
+        <v>118</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>54</v>
+        <v>119</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>69</v>
+        <v>120</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>70</v>
+        <v>121</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>67</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="H8" s="4"/>
     </row>
     <row r="9" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>63</v>
+        <v>68</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
+        <v>31</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="11" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>68</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="H11" s="4"/>
     </row>
     <row r="12" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>77</v>
+        <v>80</v>
+      </c>
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/기획/아이템 명세서.xlsx
+++ b/기획/아이템 명세서.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\6255p\Desktop\UnityProject\Clone_Survivor.io\기획\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6632E910-5707-4519-9566-0779420E0C80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59DE60F9-8A08-47C0-9812-BE6932D35063}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="무기" sheetId="1" r:id="rId1"/>
@@ -1287,8 +1287,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="A13:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1636,7 +1636,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48E25522-29B1-4D88-9C3E-E532B48ECB7B}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>

--- a/기획/아이템 명세서.xlsx
+++ b/기획/아이템 명세서.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\6255p\Desktop\UnityProject\Clone_Survivor.io\기획\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59DE60F9-8A08-47C0-9812-BE6932D35063}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0E51CA9-BBD2-4ACA-B616-FB596239789C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
   <metadataTypes count="1">
     <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
-  <futureMetadata name="XLRICHVALUE" count="12">
+  <futureMetadata name="XLRICHVALUE" count="9">
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
@@ -94,29 +94,8 @@
         </ext>
       </extLst>
     </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="9"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="10"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="11"/>
-        </ext>
-      </extLst>
-    </bk>
   </futureMetadata>
-  <valueMetadata count="12">
+  <valueMetadata count="9">
     <bk>
       <rc t="1" v="0"/>
     </bk>
@@ -144,21 +123,12 @@
     <bk>
       <rc t="1" v="8"/>
     </bk>
-    <bk>
-      <rc t="1" v="9"/>
-    </bk>
-    <bk>
-      <rc t="1" v="10"/>
-    </bk>
-    <bk>
-      <rc t="1" v="11"/>
-    </bk>
   </valueMetadata>
 </metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="132">
   <si>
     <t>무기명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -206,10 +176,6 @@
     <t>Lv.5</t>
   </si>
   <si>
-    <t>A형 드론</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>축구공</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -222,14 +188,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>화염병</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>화염병 2개 투척</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>패시브명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -286,10 +244,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>B형 드론</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>번개 발사기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -507,16 +461,6 @@
   </si>
   <si>
     <t>쿠나이 1개 발사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A형 드론을 소환 
-드론이 여러 발 미사일을 발사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B형 그론을 소환 
-B형 드론의 쿨타임이 짧을수록 피해량은 커지지만 미사일 개수가 대폭 감소</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -904,7 +848,7 @@
 </file>
 
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="12">
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="9">
   <rv s="0">
     <v>0</v>
     <v>5</v>
@@ -941,18 +885,6 @@
     <v>8</v>
     <v>5</v>
   </rv>
-  <rv s="0">
-    <v>9</v>
-    <v>5</v>
-  </rv>
-  <rv s="0">
-    <v>10</v>
-    <v>5</v>
-  </rv>
-  <rv s="0">
-    <v>11</v>
-    <v>5</v>
-  </rv>
 </rvData>
 </file>
 
@@ -976,17 +908,14 @@
   <rel r:id="rId7"/>
   <rel r:id="rId8"/>
   <rel r:id="rId9"/>
-  <rel r:id="rId10"/>
-  <rel r:id="rId11"/>
-  <rel r:id="rId12"/>
 </richValueRels>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D27BE8C9-0079-4D92-BA66-F94B1878923C}" name="표1" displayName="표1" ref="A1:H13" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
-  <autoFilter ref="A1:H13" xr:uid="{D27BE8C9-0079-4D92-BA66-F94B1878923C}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H13">
-    <sortCondition ref="A1:A13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D27BE8C9-0079-4D92-BA66-F94B1878923C}" name="표1" displayName="표1" ref="A1:H10" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+  <autoFilter ref="A1:H10" xr:uid="{D27BE8C9-0079-4D92-BA66-F94B1878923C}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H10">
+    <sortCondition ref="A1:A10"/>
   </sortState>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{DEC30078-EB34-4928-8271-F90082E1B208}" name="무기명" dataDxfId="17"/>
@@ -1288,7 +1217,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="A13:H13"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1322,307 +1251,262 @@
         <v>11</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B2" s="2" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
+        <v>26</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>97</v>
+      </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="B3" s="2" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>28</v>
+        <v>104</v>
       </c>
       <c r="B4" s="2" t="e" vm="3">
         <v>#VALUE!</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>29</v>
+        <v>105</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>35</v>
+        <v>106</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>47</v>
+        <v>106</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>35</v>
+        <v>106</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="B5" s="2" t="e" vm="4">
         <v>#VALUE!</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>6</v>
+        <v>90</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>48</v>
+        <v>91</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>110</v>
+        <v>2</v>
       </c>
       <c r="B6" s="2" t="e" vm="5">
         <v>#VALUE!</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>111</v>
+        <v>5</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
     </row>
     <row r="7" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>33</v>
+        <v>108</v>
       </c>
       <c r="B7" s="2" t="e" vm="6">
         <v>#VALUE!</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>34</v>
+        <v>109</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
     </row>
     <row r="8" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B8" s="2" t="e" vm="7">
         <v>#VALUE!</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>5</v>
+        <v>131</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
     </row>
     <row r="9" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>114</v>
+        <v>12</v>
       </c>
       <c r="B9" s="2" t="e" vm="8">
         <v>#VALUE!</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>115</v>
+        <v>13</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>116</v>
+        <v>32</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>116</v>
+        <v>32</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B10" s="2" t="e" vm="9">
         <v>#VALUE!</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>137</v>
+        <v>89</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="2" t="e" vm="10">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="2" t="e" vm="11">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="2" t="e" vm="12">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-    </row>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1650,7 +1534,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>1</v>
@@ -1671,293 +1555,293 @@
         <v>11</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H8" s="4"/>
     </row>
     <row r="9" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D9" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="F9" s="4" t="s">
+      <c r="G9" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>68</v>
-      </c>
       <c r="H9" s="4" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H11" s="4"/>
     </row>
     <row r="12" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
